--- a/data/raw/election/voters-age-sex-education/2023/Düzce.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Düzce.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:36:22-13467641865" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="37">
   <si>
     <t>Düzce</t>
   </si>
@@ -125,6 +124,12 @@
   </si>
   <si>
     <t>Yığılca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -672,16 +677,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,10 +1020,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,52 +1039,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1127,8 +1141,8 @@
       <c r="G6" s="4">
         <v>297</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.155</v>
+      <c r="H6" s="5">
+        <v>1155</v>
       </c>
       <c r="I6" s="4">
         <v>269</v>
@@ -1142,8 +1156,8 @@
       <c r="L6" s="4">
         <v>10</v>
       </c>
-      <c r="M6" s="5">
-        <v>1.736</v>
+      <c r="M6" s="6">
+        <v>1736</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1166,8 +1180,8 @@
       <c r="G7" s="4">
         <v>271</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.1200000000000001</v>
+      <c r="H7" s="5">
+        <v>1120</v>
       </c>
       <c r="I7" s="4">
         <v>408</v>
@@ -1181,8 +1195,8 @@
       <c r="L7" s="4">
         <v>5</v>
       </c>
-      <c r="M7" s="5">
-        <v>1.8160000000000001</v>
+      <c r="M7" s="6">
+        <v>1816</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1222,8 +1236,8 @@
       <c r="L8" s="4">
         <v>7</v>
       </c>
-      <c r="M8" s="5">
-        <v>1.2310000000000001</v>
+      <c r="M8" s="6">
+        <v>1231</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1261,8 +1275,8 @@
       <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.1859999999999999</v>
+      <c r="M9" s="6">
+        <v>1186</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1302,8 +1316,8 @@
       <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.1220000000000001</v>
+      <c r="M10" s="6">
+        <v>1122</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,8 +1355,8 @@
       <c r="L11" s="4">
         <v>12</v>
       </c>
-      <c r="M11" s="5">
-        <v>1.091</v>
+      <c r="M11" s="6">
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1382,8 +1396,8 @@
       <c r="L12" s="4">
         <v>3</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.206</v>
+      <c r="M12" s="6">
+        <v>1206</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,8 +1435,8 @@
       <c r="L13" s="4">
         <v>6</v>
       </c>
-      <c r="M13" s="5">
-        <v>1.276</v>
+      <c r="M13" s="6">
+        <v>1276</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1462,8 +1476,8 @@
       <c r="L14" s="4">
         <v>11</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.3779999999999999</v>
+      <c r="M14" s="6">
+        <v>1378</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,8 +1515,8 @@
       <c r="L15" s="4">
         <v>6</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.3640000000000001</v>
+      <c r="M15" s="6">
+        <v>1364</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1542,8 +1556,8 @@
       <c r="L16" s="4">
         <v>8</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.3620000000000001</v>
+      <c r="M16" s="6">
+        <v>1362</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1581,8 +1595,8 @@
       <c r="L17" s="4">
         <v>8</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.4330000000000001</v>
+      <c r="M17" s="6">
+        <v>1433</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1622,8 +1636,8 @@
       <c r="L18" s="4">
         <v>15</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.508</v>
+      <c r="M18" s="6">
+        <v>1508</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1661,8 +1675,8 @@
       <c r="L19" s="4">
         <v>12</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.583</v>
+      <c r="M19" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1702,8 +1716,8 @@
       <c r="L20" s="4">
         <v>26</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.478</v>
+      <c r="M20" s="6">
+        <v>1478</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1741,8 +1755,8 @@
       <c r="L21" s="4">
         <v>20</v>
       </c>
-      <c r="M21" s="5">
-        <v>1.5820000000000001</v>
+      <c r="M21" s="6">
+        <v>1582</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,8 +1796,8 @@
       <c r="L22" s="4">
         <v>24</v>
       </c>
-      <c r="M22" s="5">
-        <v>1.44</v>
+      <c r="M22" s="6">
+        <v>1440</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1821,8 +1835,8 @@
       <c r="L23" s="4">
         <v>26</v>
       </c>
-      <c r="M23" s="5">
-        <v>1.482</v>
+      <c r="M23" s="6">
+        <v>1482</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1862,8 +1876,8 @@
       <c r="L24" s="4">
         <v>27</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.222</v>
+      <c r="M24" s="6">
+        <v>1222</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1901,8 +1915,8 @@
       <c r="L25" s="4">
         <v>25</v>
       </c>
-      <c r="M25" s="5">
-        <v>1.198</v>
+      <c r="M25" s="6">
+        <v>1198</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,7 +1956,7 @@
       <c r="L26" s="4">
         <v>24</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>834</v>
       </c>
     </row>
@@ -1981,7 +1995,7 @@
       <c r="L27" s="4">
         <v>15</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>876</v>
       </c>
     </row>
@@ -2022,7 +2036,7 @@
       <c r="L28" s="4">
         <v>23</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>925</v>
       </c>
     </row>
@@ -2061,54 +2075,54 @@
       <c r="L29" s="4">
         <v>24</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.3540000000000001</v>
+      <c r="M29" s="6">
+        <v>1354</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="7">
         <v>686</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>866</v>
       </c>
-      <c r="E30" s="5">
-        <v>8.0579999999999998</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.2810000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>3.6179999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>9.1620000000000008</v>
-      </c>
-      <c r="I30" s="5">
-        <v>6.0919999999999996</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="E30" s="6">
+        <v>8058</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2281</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3618</v>
+      </c>
+      <c r="H30" s="6">
+        <v>9162</v>
+      </c>
+      <c r="I30" s="6">
+        <v>6092</v>
+      </c>
+      <c r="J30" s="7">
         <v>508</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <v>65</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>347</v>
       </c>
-      <c r="M30" s="5">
-        <v>31.683</v>
+      <c r="M30" s="6">
+        <v>31683</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2180,7 +2194,7 @@
       <c r="L32" s="4">
         <v>12</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="7">
         <v>756</v>
       </c>
     </row>
@@ -2219,7 +2233,7 @@
       <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="7">
         <v>787</v>
       </c>
     </row>
@@ -2260,7 +2274,7 @@
       <c r="L34" s="4">
         <v>6</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="7">
         <v>600</v>
       </c>
     </row>
@@ -2299,7 +2313,7 @@
       <c r="L35" s="4">
         <v>4</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="7">
         <v>593</v>
       </c>
     </row>
@@ -2340,7 +2354,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="7">
         <v>595</v>
       </c>
     </row>
@@ -2379,7 +2393,7 @@
       <c r="L37" s="4">
         <v>4</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="7">
         <v>525</v>
       </c>
     </row>
@@ -2420,7 +2434,7 @@
       <c r="L38" s="4">
         <v>3</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="7">
         <v>527</v>
       </c>
     </row>
@@ -2459,7 +2473,7 @@
       <c r="L39" s="4">
         <v>1</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="7">
         <v>487</v>
       </c>
     </row>
@@ -2500,7 +2514,7 @@
       <c r="L40" s="4">
         <v>5</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="7">
         <v>561</v>
       </c>
     </row>
@@ -2539,7 +2553,7 @@
       <c r="L41" s="4">
         <v>3</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="7">
         <v>552</v>
       </c>
     </row>
@@ -2580,7 +2594,7 @@
       <c r="L42" s="4">
         <v>5</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="7">
         <v>585</v>
       </c>
     </row>
@@ -2619,7 +2633,7 @@
       <c r="L43" s="4">
         <v>2</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="7">
         <v>491</v>
       </c>
     </row>
@@ -2660,7 +2674,7 @@
       <c r="L44" s="4">
         <v>3</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="7">
         <v>475</v>
       </c>
     </row>
@@ -2699,7 +2713,7 @@
       <c r="L45" s="4">
         <v>8</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <v>533</v>
       </c>
     </row>
@@ -2740,7 +2754,7 @@
       <c r="L46" s="4">
         <v>7</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="7">
         <v>520</v>
       </c>
     </row>
@@ -2779,7 +2793,7 @@
       <c r="L47" s="4">
         <v>6</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="7">
         <v>490</v>
       </c>
     </row>
@@ -2820,7 +2834,7 @@
       <c r="L48" s="4">
         <v>5</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="7">
         <v>454</v>
       </c>
     </row>
@@ -2859,7 +2873,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="7">
         <v>410</v>
       </c>
     </row>
@@ -2900,7 +2914,7 @@
       <c r="L50" s="4">
         <v>7</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <v>380</v>
       </c>
     </row>
@@ -2939,7 +2953,7 @@
       <c r="L51" s="4">
         <v>6</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="7">
         <v>351</v>
       </c>
     </row>
@@ -2980,7 +2994,7 @@
       <c r="L52" s="4">
         <v>4</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>203</v>
       </c>
     </row>
@@ -3019,7 +3033,7 @@
       <c r="L53" s="4">
         <v>5</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>250</v>
       </c>
     </row>
@@ -3060,7 +3074,7 @@
       <c r="L54" s="4">
         <v>5</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>217</v>
       </c>
     </row>
@@ -3099,7 +3113,7 @@
       <c r="L55" s="4">
         <v>4</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="7">
         <v>347</v>
       </c>
     </row>
@@ -3107,46 +3121,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="7">
         <v>222</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="7">
         <v>504</v>
       </c>
-      <c r="E56" s="5">
-        <v>3.008</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1.3340000000000001</v>
-      </c>
-      <c r="G56" s="5">
-        <v>1.752</v>
-      </c>
-      <c r="H56" s="5">
-        <v>3.1970000000000001</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1.4419999999999999</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="E56" s="6">
+        <v>3008</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1334</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1752</v>
+      </c>
+      <c r="H56" s="6">
+        <v>3197</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1442</v>
+      </c>
+      <c r="J56" s="7">
         <v>106</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>12</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>112</v>
       </c>
-      <c r="M56" s="5">
-        <v>11.689</v>
+      <c r="M56" s="6">
+        <v>11689</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3218,7 +3232,7 @@
       <c r="L58" s="4">
         <v>4</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="7">
         <v>841</v>
       </c>
     </row>
@@ -3257,7 +3271,7 @@
       <c r="L59" s="4">
         <v>1</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="7">
         <v>779</v>
       </c>
     </row>
@@ -3298,7 +3312,7 @@
       <c r="L60" s="4">
         <v>5</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="7">
         <v>613</v>
       </c>
     </row>
@@ -3337,7 +3351,7 @@
       <c r="L61" s="4">
         <v>2</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="7">
         <v>503</v>
       </c>
     </row>
@@ -3378,7 +3392,7 @@
       <c r="L62" s="4">
         <v>6</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="7">
         <v>545</v>
       </c>
     </row>
@@ -3417,7 +3431,7 @@
       <c r="L63" s="4">
         <v>4</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="7">
         <v>510</v>
       </c>
     </row>
@@ -3458,7 +3472,7 @@
       <c r="L64" s="4">
         <v>4</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="7">
         <v>613</v>
       </c>
     </row>
@@ -3497,7 +3511,7 @@
       <c r="L65" s="4">
         <v>1</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="7">
         <v>542</v>
       </c>
     </row>
@@ -3538,7 +3552,7 @@
       <c r="L66" s="4">
         <v>4</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="7">
         <v>676</v>
       </c>
     </row>
@@ -3577,7 +3591,7 @@
       <c r="L67" s="4">
         <v>4</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="7">
         <v>586</v>
       </c>
     </row>
@@ -3618,7 +3632,7 @@
       <c r="L68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="7">
         <v>670</v>
       </c>
     </row>
@@ -3657,7 +3671,7 @@
       <c r="L69" s="4">
         <v>5</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="7">
         <v>525</v>
       </c>
     </row>
@@ -3698,7 +3712,7 @@
       <c r="L70" s="4">
         <v>8</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="7">
         <v>578</v>
       </c>
     </row>
@@ -3737,7 +3751,7 @@
       <c r="L71" s="4">
         <v>5</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="7">
         <v>559</v>
       </c>
     </row>
@@ -3778,7 +3792,7 @@
       <c r="L72" s="4">
         <v>7</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="7">
         <v>581</v>
       </c>
     </row>
@@ -3817,7 +3831,7 @@
       <c r="L73" s="4">
         <v>4</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="7">
         <v>561</v>
       </c>
     </row>
@@ -3858,7 +3872,7 @@
       <c r="L74" s="4">
         <v>6</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="7">
         <v>526</v>
       </c>
     </row>
@@ -3897,7 +3911,7 @@
       <c r="L75" s="4">
         <v>6</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="7">
         <v>592</v>
       </c>
     </row>
@@ -3938,7 +3952,7 @@
       <c r="L76" s="4">
         <v>3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="7">
         <v>459</v>
       </c>
     </row>
@@ -3977,7 +3991,7 @@
       <c r="L77" s="4">
         <v>1</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="7">
         <v>508</v>
       </c>
     </row>
@@ -4018,7 +4032,7 @@
       <c r="L78" s="4">
         <v>1</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>323</v>
       </c>
     </row>
@@ -4057,7 +4071,7 @@
       <c r="L79" s="4">
         <v>3</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>369</v>
       </c>
     </row>
@@ -4098,7 +4112,7 @@
       <c r="L80" s="4">
         <v>4</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>369</v>
       </c>
     </row>
@@ -4137,7 +4151,7 @@
       <c r="L81" s="4">
         <v>7</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="7">
         <v>509</v>
       </c>
     </row>
@@ -4145,46 +4159,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="7">
         <v>303</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="7">
         <v>829</v>
       </c>
-      <c r="E82" s="5">
-        <v>3.4279999999999999</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="G82" s="5">
-        <v>1.871</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.4780000000000002</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.506</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="E82" s="6">
+        <v>3428</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1727</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1871</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3478</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1506</v>
+      </c>
+      <c r="J82" s="7">
         <v>84</v>
       </c>
-      <c r="K82" s="5">
-        <v>16</v>
-      </c>
-      <c r="L82" s="5">
+      <c r="K82" s="7">
+        <v>16</v>
+      </c>
+      <c r="L82" s="7">
         <v>95</v>
       </c>
-      <c r="M82" s="5">
-        <v>13.337</v>
+      <c r="M82" s="6">
+        <v>13337</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4238,14 +4252,14 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>2.6160000000000001</v>
-      </c>
-      <c r="H84" s="4">
-        <v>7.9530000000000003</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1.4990000000000001</v>
+      <c r="G84" s="5">
+        <v>2616</v>
+      </c>
+      <c r="H84" s="5">
+        <v>7953</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1499</v>
       </c>
       <c r="J84" s="4">
         <v>18</v>
@@ -4256,8 +4270,8 @@
       <c r="L84" s="4">
         <v>118</v>
       </c>
-      <c r="M84" s="5">
-        <v>12.256</v>
+      <c r="M84" s="6">
+        <v>12256</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4277,14 +4291,14 @@
       <c r="F85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="4">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="H85" s="4">
-        <v>7.51</v>
-      </c>
-      <c r="I85" s="4">
-        <v>2.4820000000000002</v>
+      <c r="G85" s="5">
+        <v>2196</v>
+      </c>
+      <c r="H85" s="5">
+        <v>7510</v>
+      </c>
+      <c r="I85" s="5">
+        <v>2482</v>
       </c>
       <c r="J85" s="4">
         <v>19</v>
@@ -4295,8 +4309,8 @@
       <c r="L85" s="4">
         <v>32</v>
       </c>
-      <c r="M85" s="5">
-        <v>12.314</v>
+      <c r="M85" s="6">
+        <v>12314</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4318,14 +4332,14 @@
       <c r="F86" s="4">
         <v>62</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.9770000000000001</v>
-      </c>
-      <c r="H86" s="4">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="I86" s="4">
-        <v>3.3330000000000002</v>
+      <c r="G86" s="5">
+        <v>1977</v>
+      </c>
+      <c r="H86" s="5">
+        <v>3189</v>
+      </c>
+      <c r="I86" s="5">
+        <v>3333</v>
       </c>
       <c r="J86" s="4">
         <v>254</v>
@@ -4336,8 +4350,8 @@
       <c r="L86" s="4">
         <v>84</v>
       </c>
-      <c r="M86" s="5">
-        <v>8.9480000000000004</v>
+      <c r="M86" s="6">
+        <v>8948</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4357,14 +4371,14 @@
       <c r="F87" s="4">
         <v>66</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.879</v>
-      </c>
-      <c r="H87" s="4">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="I87" s="4">
-        <v>4.2720000000000002</v>
+      <c r="G87" s="5">
+        <v>1879</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2376</v>
+      </c>
+      <c r="I87" s="5">
+        <v>4272</v>
       </c>
       <c r="J87" s="4">
         <v>406</v>
@@ -4375,8 +4389,8 @@
       <c r="L87" s="4">
         <v>43</v>
       </c>
-      <c r="M87" s="5">
-        <v>9.2050000000000001</v>
+      <c r="M87" s="6">
+        <v>9205</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4395,17 +4409,17 @@
       <c r="E88" s="4">
         <v>35</v>
       </c>
-      <c r="F88" s="4">
-        <v>1.1319999999999999</v>
+      <c r="F88" s="5">
+        <v>1132</v>
       </c>
       <c r="G88" s="4">
         <v>911</v>
       </c>
-      <c r="H88" s="4">
-        <v>3.3370000000000002</v>
-      </c>
-      <c r="I88" s="4">
-        <v>3.089</v>
+      <c r="H88" s="5">
+        <v>3337</v>
+      </c>
+      <c r="I88" s="5">
+        <v>3089</v>
       </c>
       <c r="J88" s="4">
         <v>489</v>
@@ -4416,8 +4430,8 @@
       <c r="L88" s="4">
         <v>41</v>
       </c>
-      <c r="M88" s="5">
-        <v>9.1210000000000004</v>
+      <c r="M88" s="6">
+        <v>9121</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4434,17 +4448,17 @@
       <c r="E89" s="4">
         <v>94</v>
       </c>
-      <c r="F89" s="4">
-        <v>1.48</v>
+      <c r="F89" s="5">
+        <v>1480</v>
       </c>
       <c r="G89" s="4">
         <v>905</v>
       </c>
-      <c r="H89" s="4">
-        <v>2.7429999999999999</v>
-      </c>
-      <c r="I89" s="4">
-        <v>3.4119999999999999</v>
+      <c r="H89" s="5">
+        <v>2743</v>
+      </c>
+      <c r="I89" s="5">
+        <v>3412</v>
       </c>
       <c r="J89" s="4">
         <v>518</v>
@@ -4455,8 +4469,8 @@
       <c r="L89" s="4">
         <v>60</v>
       </c>
-      <c r="M89" s="5">
-        <v>9.3780000000000001</v>
+      <c r="M89" s="6">
+        <v>9378</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4475,17 +4489,17 @@
       <c r="E90" s="4">
         <v>289</v>
       </c>
-      <c r="F90" s="4">
-        <v>1.3879999999999999</v>
+      <c r="F90" s="5">
+        <v>1388</v>
       </c>
       <c r="G90" s="4">
         <v>795</v>
       </c>
-      <c r="H90" s="4">
-        <v>3.5449999999999999</v>
-      </c>
-      <c r="I90" s="4">
-        <v>2.641</v>
+      <c r="H90" s="5">
+        <v>3545</v>
+      </c>
+      <c r="I90" s="5">
+        <v>2641</v>
       </c>
       <c r="J90" s="4">
         <v>457</v>
@@ -4496,8 +4510,8 @@
       <c r="L90" s="4">
         <v>60</v>
       </c>
-      <c r="M90" s="5">
-        <v>9.3260000000000005</v>
+      <c r="M90" s="6">
+        <v>9326</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4511,20 +4525,20 @@
       <c r="D91" s="4">
         <v>81</v>
       </c>
-      <c r="E91" s="4">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="F91" s="4">
-        <v>1.548</v>
+      <c r="E91" s="5">
+        <v>1124</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1548</v>
       </c>
       <c r="G91" s="4">
         <v>985</v>
       </c>
-      <c r="H91" s="4">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="I91" s="4">
-        <v>2.464</v>
+      <c r="H91" s="5">
+        <v>2793</v>
+      </c>
+      <c r="I91" s="5">
+        <v>2464</v>
       </c>
       <c r="J91" s="4">
         <v>365</v>
@@ -4535,8 +4549,8 @@
       <c r="L91" s="4">
         <v>65</v>
       </c>
-      <c r="M91" s="5">
-        <v>9.5609999999999999</v>
+      <c r="M91" s="6">
+        <v>9561</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4555,17 +4569,17 @@
       <c r="E92" s="4">
         <v>677</v>
       </c>
-      <c r="F92" s="4">
-        <v>1.59</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="H92" s="4">
-        <v>3.64</v>
-      </c>
-      <c r="I92" s="4">
-        <v>2.0680000000000001</v>
+      <c r="F92" s="5">
+        <v>1590</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1435</v>
+      </c>
+      <c r="H92" s="5">
+        <v>3640</v>
+      </c>
+      <c r="I92" s="5">
+        <v>2068</v>
       </c>
       <c r="J92" s="4">
         <v>381</v>
@@ -4576,8 +4590,8 @@
       <c r="L92" s="4">
         <v>57</v>
       </c>
-      <c r="M92" s="5">
-        <v>10.006</v>
+      <c r="M92" s="6">
+        <v>10006</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4591,20 +4605,20 @@
       <c r="D93" s="4">
         <v>71</v>
       </c>
-      <c r="E93" s="4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="G93" s="4">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="H93" s="4">
-        <v>2.6480000000000001</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1.9179999999999999</v>
+      <c r="E93" s="5">
+        <v>2050</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1467</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1555</v>
+      </c>
+      <c r="H93" s="5">
+        <v>2648</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1918</v>
       </c>
       <c r="J93" s="4">
         <v>308</v>
@@ -4615,8 +4629,8 @@
       <c r="L93" s="4">
         <v>49</v>
       </c>
-      <c r="M93" s="5">
-        <v>10.191000000000001</v>
+      <c r="M93" s="6">
+        <v>10191</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4635,17 +4649,17 @@
       <c r="E94" s="4">
         <v>918</v>
       </c>
-      <c r="F94" s="4">
-        <v>1.92</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="H94" s="4">
-        <v>2.7120000000000002</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1.6919999999999999</v>
+      <c r="F94" s="5">
+        <v>1920</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1233</v>
+      </c>
+      <c r="H94" s="5">
+        <v>2712</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1692</v>
       </c>
       <c r="J94" s="4">
         <v>251</v>
@@ -4656,8 +4670,8 @@
       <c r="L94" s="4">
         <v>65</v>
       </c>
-      <c r="M94" s="5">
-        <v>8.9269999999999996</v>
+      <c r="M94" s="6">
+        <v>8927</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4671,20 +4685,20 @@
       <c r="D95" s="4">
         <v>74</v>
       </c>
-      <c r="E95" s="4">
-        <v>2.488</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1.5609999999999999</v>
-      </c>
-      <c r="G95" s="4">
-        <v>1.236</v>
-      </c>
-      <c r="H95" s="4">
-        <v>1.8560000000000001</v>
-      </c>
-      <c r="I95" s="4">
-        <v>1.113</v>
+      <c r="E95" s="5">
+        <v>2488</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1561</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1236</v>
+      </c>
+      <c r="H95" s="5">
+        <v>1856</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1113</v>
       </c>
       <c r="J95" s="4">
         <v>141</v>
@@ -4695,8 +4709,8 @@
       <c r="L95" s="4">
         <v>62</v>
       </c>
-      <c r="M95" s="5">
-        <v>8.6310000000000002</v>
+      <c r="M95" s="6">
+        <v>8631</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4712,20 +4726,20 @@
       <c r="D96" s="4">
         <v>24</v>
       </c>
-      <c r="E96" s="4">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="F96" s="4">
-        <v>1.806</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1.171</v>
-      </c>
-      <c r="H96" s="4">
-        <v>1.917</v>
-      </c>
-      <c r="I96" s="4">
-        <v>1.141</v>
+      <c r="E96" s="5">
+        <v>1118</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1806</v>
+      </c>
+      <c r="G96" s="5">
+        <v>1171</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1917</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1141</v>
       </c>
       <c r="J96" s="4">
         <v>131</v>
@@ -4736,8 +4750,8 @@
       <c r="L96" s="4">
         <v>67</v>
       </c>
-      <c r="M96" s="5">
-        <v>7.4459999999999997</v>
+      <c r="M96" s="6">
+        <v>7446</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,17 +4765,17 @@
       <c r="D97" s="4">
         <v>135</v>
       </c>
-      <c r="E97" s="4">
-        <v>2.9550000000000001</v>
-      </c>
-      <c r="F97" s="4">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="G97" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="H97" s="4">
-        <v>1.3260000000000001</v>
+      <c r="E97" s="5">
+        <v>2955</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1311</v>
+      </c>
+      <c r="G97" s="5">
+        <v>1040</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1326</v>
       </c>
       <c r="I97" s="4">
         <v>620</v>
@@ -4775,8 +4789,8 @@
       <c r="L97" s="4">
         <v>83</v>
       </c>
-      <c r="M97" s="5">
-        <v>7.6379999999999999</v>
+      <c r="M97" s="6">
+        <v>7638</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4792,17 +4806,17 @@
       <c r="D98" s="4">
         <v>33</v>
       </c>
-      <c r="E98" s="4">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="F98" s="4">
-        <v>1.484</v>
+      <c r="E98" s="5">
+        <v>1485</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1484</v>
       </c>
       <c r="G98" s="4">
         <v>992</v>
       </c>
-      <c r="H98" s="4">
-        <v>1.456</v>
+      <c r="H98" s="5">
+        <v>1456</v>
       </c>
       <c r="I98" s="4">
         <v>775</v>
@@ -4816,8 +4830,8 @@
       <c r="L98" s="4">
         <v>71</v>
       </c>
-      <c r="M98" s="5">
-        <v>6.4290000000000003</v>
+      <c r="M98" s="6">
+        <v>6429</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4831,8 +4845,8 @@
       <c r="D99" s="4">
         <v>281</v>
       </c>
-      <c r="E99" s="4">
-        <v>3.141</v>
+      <c r="E99" s="5">
+        <v>3141</v>
       </c>
       <c r="F99" s="4">
         <v>838</v>
@@ -4855,8 +4869,8 @@
       <c r="L99" s="4">
         <v>94</v>
       </c>
-      <c r="M99" s="5">
-        <v>6.4290000000000003</v>
+      <c r="M99" s="6">
+        <v>6429</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4872,8 +4886,8 @@
       <c r="D100" s="4">
         <v>54</v>
       </c>
-      <c r="E100" s="4">
-        <v>2.0779999999999998</v>
+      <c r="E100" s="5">
+        <v>2078</v>
       </c>
       <c r="F100" s="4">
         <v>944</v>
@@ -4881,8 +4895,8 @@
       <c r="G100" s="4">
         <v>686</v>
       </c>
-      <c r="H100" s="4">
-        <v>1.171</v>
+      <c r="H100" s="5">
+        <v>1171</v>
       </c>
       <c r="I100" s="4">
         <v>554</v>
@@ -4896,8 +4910,8 @@
       <c r="L100" s="4">
         <v>93</v>
       </c>
-      <c r="M100" s="5">
-        <v>5.6689999999999996</v>
+      <c r="M100" s="6">
+        <v>5669</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4911,8 +4925,8 @@
       <c r="D101" s="4">
         <v>572</v>
       </c>
-      <c r="E101" s="4">
-        <v>3.375</v>
+      <c r="E101" s="5">
+        <v>3375</v>
       </c>
       <c r="F101" s="4">
         <v>426</v>
@@ -4935,8 +4949,8 @@
       <c r="L101" s="4">
         <v>79</v>
       </c>
-      <c r="M101" s="5">
-        <v>6.024</v>
+      <c r="M101" s="6">
+        <v>6024</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4952,8 +4966,8 @@
       <c r="D102" s="4">
         <v>80</v>
       </c>
-      <c r="E102" s="4">
-        <v>2.15</v>
+      <c r="E102" s="5">
+        <v>2150</v>
       </c>
       <c r="F102" s="4">
         <v>405</v>
@@ -4976,8 +4990,8 @@
       <c r="L102" s="4">
         <v>84</v>
       </c>
-      <c r="M102" s="5">
-        <v>4.532</v>
+      <c r="M102" s="6">
+        <v>4532</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4991,8 +5005,8 @@
       <c r="D103" s="4">
         <v>837</v>
       </c>
-      <c r="E103" s="4">
-        <v>2.5920000000000001</v>
+      <c r="E103" s="5">
+        <v>2592</v>
       </c>
       <c r="F103" s="4">
         <v>138</v>
@@ -5015,8 +5029,8 @@
       <c r="L103" s="4">
         <v>88</v>
       </c>
-      <c r="M103" s="5">
-        <v>4.8639999999999999</v>
+      <c r="M103" s="6">
+        <v>4864</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5032,8 +5046,8 @@
       <c r="D104" s="4">
         <v>137</v>
       </c>
-      <c r="E104" s="4">
-        <v>1.7030000000000001</v>
+      <c r="E104" s="5">
+        <v>1703</v>
       </c>
       <c r="F104" s="4">
         <v>106</v>
@@ -5056,8 +5070,8 @@
       <c r="L104" s="4">
         <v>48</v>
       </c>
-      <c r="M104" s="5">
-        <v>2.8940000000000001</v>
+      <c r="M104" s="6">
+        <v>2894</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5071,8 +5085,8 @@
       <c r="D105" s="4">
         <v>842</v>
       </c>
-      <c r="E105" s="4">
-        <v>1.623</v>
+      <c r="E105" s="5">
+        <v>1623</v>
       </c>
       <c r="F105" s="4">
         <v>26</v>
@@ -5095,8 +5109,8 @@
       <c r="L105" s="4">
         <v>52</v>
       </c>
-      <c r="M105" s="5">
-        <v>3.4540000000000002</v>
+      <c r="M105" s="6">
+        <v>3454</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5112,8 +5126,8 @@
       <c r="D106" s="4">
         <v>414</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.806</v>
+      <c r="E106" s="5">
+        <v>1806</v>
       </c>
       <c r="F106" s="4">
         <v>47</v>
@@ -5136,8 +5150,8 @@
       <c r="L106" s="4">
         <v>52</v>
       </c>
-      <c r="M106" s="5">
-        <v>3.2029999999999998</v>
+      <c r="M106" s="6">
+        <v>3203</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5145,14 +5159,14 @@
       <c r="B107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="4">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.62</v>
+      <c r="C107" s="5">
+        <v>1354</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1416</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1620</v>
       </c>
       <c r="F107" s="4">
         <v>16</v>
@@ -5175,54 +5189,54 @@
       <c r="L107" s="4">
         <v>80</v>
       </c>
-      <c r="M107" s="5">
-        <v>4.75</v>
+      <c r="M107" s="6">
+        <v>4750</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>3.3580000000000001</v>
-      </c>
-      <c r="D108" s="5">
-        <v>5.399</v>
-      </c>
-      <c r="E108" s="5">
-        <v>33.496000000000002</v>
-      </c>
-      <c r="F108" s="5">
-        <v>19.762</v>
-      </c>
-      <c r="G108" s="5">
-        <v>24.123000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>53.421999999999997</v>
-      </c>
-      <c r="I108" s="5">
-        <v>35.103000000000002</v>
-      </c>
-      <c r="J108" s="5">
-        <v>4.0060000000000002</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="6">
+        <v>3358</v>
+      </c>
+      <c r="D108" s="6">
+        <v>5399</v>
+      </c>
+      <c r="E108" s="6">
+        <v>33496</v>
+      </c>
+      <c r="F108" s="6">
+        <v>19762</v>
+      </c>
+      <c r="G108" s="6">
+        <v>24123</v>
+      </c>
+      <c r="H108" s="6">
+        <v>53422</v>
+      </c>
+      <c r="I108" s="6">
+        <v>35103</v>
+      </c>
+      <c r="J108" s="6">
+        <v>4006</v>
+      </c>
+      <c r="K108" s="7">
         <v>900</v>
       </c>
-      <c r="L108" s="5">
-        <v>1.627</v>
-      </c>
-      <c r="M108" s="5">
-        <v>181.196</v>
+      <c r="L108" s="6">
+        <v>1627</v>
+      </c>
+      <c r="M108" s="6">
+        <v>181196</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5294,8 +5308,8 @@
       <c r="L110" s="4">
         <v>12</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.036</v>
+      <c r="M110" s="6">
+        <v>1036</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5333,8 +5347,8 @@
       <c r="L111" s="4">
         <v>3</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.034</v>
+      <c r="M111" s="6">
+        <v>1034</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5374,7 +5388,7 @@
       <c r="L112" s="4">
         <v>6</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="7">
         <v>732</v>
       </c>
     </row>
@@ -5413,7 +5427,7 @@
       <c r="L113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="7">
         <v>663</v>
       </c>
     </row>
@@ -5454,7 +5468,7 @@
       <c r="L114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="7">
         <v>651</v>
       </c>
     </row>
@@ -5493,7 +5507,7 @@
       <c r="L115" s="4">
         <v>3</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="7">
         <v>623</v>
       </c>
     </row>
@@ -5534,7 +5548,7 @@
       <c r="L116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="7">
         <v>686</v>
       </c>
     </row>
@@ -5573,7 +5587,7 @@
       <c r="L117" s="4">
         <v>2</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="7">
         <v>588</v>
       </c>
     </row>
@@ -5614,7 +5628,7 @@
       <c r="L118" s="4">
         <v>9</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="7">
         <v>763</v>
       </c>
     </row>
@@ -5653,7 +5667,7 @@
       <c r="L119" s="4">
         <v>3</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="7">
         <v>657</v>
       </c>
     </row>
@@ -5694,7 +5708,7 @@
       <c r="L120" s="4">
         <v>5</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="7">
         <v>752</v>
       </c>
     </row>
@@ -5733,7 +5747,7 @@
       <c r="L121" s="4">
         <v>6</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="7">
         <v>662</v>
       </c>
     </row>
@@ -5774,7 +5788,7 @@
       <c r="L122" s="4">
         <v>9</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="7">
         <v>725</v>
       </c>
     </row>
@@ -5813,7 +5827,7 @@
       <c r="L123" s="4">
         <v>10</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="7">
         <v>709</v>
       </c>
     </row>
@@ -5854,7 +5868,7 @@
       <c r="L124" s="4">
         <v>13</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="7">
         <v>705</v>
       </c>
     </row>
@@ -5893,7 +5907,7 @@
       <c r="L125" s="4">
         <v>15</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="7">
         <v>692</v>
       </c>
     </row>
@@ -5934,7 +5948,7 @@
       <c r="L126" s="4">
         <v>7</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="7">
         <v>683</v>
       </c>
     </row>
@@ -5973,7 +5987,7 @@
       <c r="L127" s="4">
         <v>9</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="7">
         <v>657</v>
       </c>
     </row>
@@ -6014,7 +6028,7 @@
       <c r="L128" s="4">
         <v>12</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>575</v>
       </c>
     </row>
@@ -6053,7 +6067,7 @@
       <c r="L129" s="4">
         <v>6</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="7">
         <v>625</v>
       </c>
     </row>
@@ -6094,7 +6108,7 @@
       <c r="L130" s="4">
         <v>4</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>396</v>
       </c>
     </row>
@@ -6133,7 +6147,7 @@
       <c r="L131" s="4">
         <v>3</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>418</v>
       </c>
     </row>
@@ -6174,7 +6188,7 @@
       <c r="L132" s="4">
         <v>15</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>438</v>
       </c>
     </row>
@@ -6213,7 +6227,7 @@
       <c r="L133" s="4">
         <v>16</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>710</v>
       </c>
     </row>
@@ -6221,46 +6235,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="7">
         <v>672</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="7">
         <v>971</v>
       </c>
-      <c r="E134" s="5">
-        <v>3.9849999999999999</v>
-      </c>
-      <c r="F134" s="5">
-        <v>2.0670000000000002</v>
-      </c>
-      <c r="G134" s="5">
-        <v>2.359</v>
-      </c>
-      <c r="H134" s="5">
-        <v>4.0940000000000003</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1.748</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="E134" s="6">
+        <v>3985</v>
+      </c>
+      <c r="F134" s="6">
+        <v>2067</v>
+      </c>
+      <c r="G134" s="6">
+        <v>2359</v>
+      </c>
+      <c r="H134" s="6">
+        <v>4094</v>
+      </c>
+      <c r="I134" s="6">
+        <v>1748</v>
+      </c>
+      <c r="J134" s="7">
         <v>111</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>5</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>168</v>
       </c>
-      <c r="M134" s="5">
-        <v>16.18</v>
+      <c r="M134" s="6">
+        <v>16180</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6332,7 +6346,7 @@
       <c r="L136" s="4">
         <v>12</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="7">
         <v>901</v>
       </c>
     </row>
@@ -6371,7 +6385,7 @@
       <c r="L137" s="4">
         <v>2</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="7">
         <v>882</v>
       </c>
     </row>
@@ -6412,7 +6426,7 @@
       <c r="L138" s="4">
         <v>5</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="7">
         <v>626</v>
       </c>
     </row>
@@ -6451,7 +6465,7 @@
       <c r="L139" s="4">
         <v>2</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="7">
         <v>589</v>
       </c>
     </row>
@@ -6492,7 +6506,7 @@
       <c r="L140" s="4">
         <v>2</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="7">
         <v>625</v>
       </c>
     </row>
@@ -6531,7 +6545,7 @@
       <c r="L141" s="4">
         <v>4</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="7">
         <v>562</v>
       </c>
     </row>
@@ -6572,7 +6586,7 @@
       <c r="L142" s="4">
         <v>3</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="7">
         <v>547</v>
       </c>
     </row>
@@ -6611,7 +6625,7 @@
       <c r="L143" s="4">
         <v>2</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="7">
         <v>529</v>
       </c>
     </row>
@@ -6652,7 +6666,7 @@
       <c r="L144" s="4">
         <v>5</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="7">
         <v>687</v>
       </c>
     </row>
@@ -6691,7 +6705,7 @@
       <c r="L145" s="4">
         <v>2</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="7">
         <v>596</v>
       </c>
     </row>
@@ -6732,7 +6746,7 @@
       <c r="L146" s="4">
         <v>3</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="7">
         <v>605</v>
       </c>
     </row>
@@ -6771,7 +6785,7 @@
       <c r="L147" s="4">
         <v>3</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="7">
         <v>565</v>
       </c>
     </row>
@@ -6812,7 +6826,7 @@
       <c r="L148" s="4">
         <v>4</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="7">
         <v>550</v>
       </c>
     </row>
@@ -6851,7 +6865,7 @@
       <c r="L149" s="4">
         <v>9</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="7">
         <v>608</v>
       </c>
     </row>
@@ -6892,7 +6906,7 @@
       <c r="L150" s="4">
         <v>8</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="7">
         <v>599</v>
       </c>
     </row>
@@ -6931,7 +6945,7 @@
       <c r="L151" s="4">
         <v>12</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="7">
         <v>534</v>
       </c>
     </row>
@@ -6972,7 +6986,7 @@
       <c r="L152" s="4">
         <v>9</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="7">
         <v>505</v>
       </c>
     </row>
@@ -7011,7 +7025,7 @@
       <c r="L153" s="4">
         <v>9</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="7">
         <v>493</v>
       </c>
     </row>
@@ -7052,7 +7066,7 @@
       <c r="L154" s="4">
         <v>7</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>373</v>
       </c>
     </row>
@@ -7091,7 +7105,7 @@
       <c r="L155" s="4">
         <v>5</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="7">
         <v>424</v>
       </c>
     </row>
@@ -7132,7 +7146,7 @@
       <c r="L156" s="4">
         <v>3</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>270</v>
       </c>
     </row>
@@ -7171,7 +7185,7 @@
       <c r="L157" s="4">
         <v>6</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>310</v>
       </c>
     </row>
@@ -7212,7 +7226,7 @@
       <c r="L158" s="4">
         <v>4</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>288</v>
       </c>
     </row>
@@ -7251,7 +7265,7 @@
       <c r="L159" s="4">
         <v>6</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="7">
         <v>408</v>
       </c>
     </row>
@@ -7259,46 +7273,46 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="7">
         <v>309</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="7">
         <v>609</v>
       </c>
-      <c r="E160" s="5">
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.5489999999999999</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1.9239999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>3.5369999999999999</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.597</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="E160" s="6">
+        <v>3317</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1549</v>
+      </c>
+      <c r="G160" s="6">
+        <v>1924</v>
+      </c>
+      <c r="H160" s="6">
+        <v>3537</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1597</v>
+      </c>
+      <c r="J160" s="7">
         <v>99</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>8</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>127</v>
       </c>
-      <c r="M160" s="5">
-        <v>13.076000000000001</v>
+      <c r="M160" s="6">
+        <v>13076</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7370,7 +7384,7 @@
       <c r="L162" s="4">
         <v>11</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="7">
         <v>991</v>
       </c>
     </row>
@@ -7409,7 +7423,7 @@
       <c r="L163" s="4">
         <v>10</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="7">
         <v>997</v>
       </c>
     </row>
@@ -7450,7 +7464,7 @@
       <c r="L164" s="4">
         <v>10</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="7">
         <v>750</v>
       </c>
     </row>
@@ -7489,7 +7503,7 @@
       <c r="L165" s="4">
         <v>6</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="7">
         <v>662</v>
       </c>
     </row>
@@ -7530,7 +7544,7 @@
       <c r="L166" s="4">
         <v>5</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="7">
         <v>684</v>
       </c>
     </row>
@@ -7569,7 +7583,7 @@
       <c r="L167" s="4">
         <v>3</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="7">
         <v>613</v>
       </c>
     </row>
@@ -7610,7 +7624,7 @@
       <c r="L168" s="4">
         <v>3</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="7">
         <v>678</v>
       </c>
     </row>
@@ -7649,7 +7663,7 @@
       <c r="L169" s="4">
         <v>3</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="7">
         <v>652</v>
       </c>
     </row>
@@ -7690,7 +7704,7 @@
       <c r="L170" s="4">
         <v>2</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="7">
         <v>803</v>
       </c>
     </row>
@@ -7729,7 +7743,7 @@
       <c r="L171" s="4">
         <v>8</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="7">
         <v>741</v>
       </c>
     </row>
@@ -7770,7 +7784,7 @@
       <c r="L172" s="4">
         <v>10</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="7">
         <v>778</v>
       </c>
     </row>
@@ -7809,7 +7823,7 @@
       <c r="L173" s="4">
         <v>12</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="7">
         <v>737</v>
       </c>
     </row>
@@ -7850,7 +7864,7 @@
       <c r="L174" s="4">
         <v>8</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="7">
         <v>724</v>
       </c>
     </row>
@@ -7889,7 +7903,7 @@
       <c r="L175" s="4">
         <v>9</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="7">
         <v>686</v>
       </c>
     </row>
@@ -7930,7 +7944,7 @@
       <c r="L176" s="4">
         <v>21</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="7">
         <v>692</v>
       </c>
     </row>
@@ -7969,7 +7983,7 @@
       <c r="L177" s="4">
         <v>11</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="7">
         <v>677</v>
       </c>
     </row>
@@ -8010,7 +8024,7 @@
       <c r="L178" s="4">
         <v>18</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="7">
         <v>668</v>
       </c>
     </row>
@@ -8049,7 +8063,7 @@
       <c r="L179" s="4">
         <v>17</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="7">
         <v>610</v>
       </c>
     </row>
@@ -8090,7 +8104,7 @@
       <c r="L180" s="4">
         <v>13</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="7">
         <v>499</v>
       </c>
     </row>
@@ -8129,7 +8143,7 @@
       <c r="L181" s="4">
         <v>19</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="7">
         <v>576</v>
       </c>
     </row>
@@ -8170,7 +8184,7 @@
       <c r="L182" s="4">
         <v>6</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="7">
         <v>328</v>
       </c>
     </row>
@@ -8209,7 +8223,7 @@
       <c r="L183" s="4">
         <v>10</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="7">
         <v>358</v>
       </c>
     </row>
@@ -8250,7 +8264,7 @@
       <c r="L184" s="4">
         <v>12</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="7">
         <v>376</v>
       </c>
     </row>
@@ -8289,7 +8303,7 @@
       <c r="L185" s="4">
         <v>15</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="7">
         <v>570</v>
       </c>
     </row>
@@ -8297,46 +8311,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="7">
         <v>509</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="7">
         <v>575</v>
       </c>
-      <c r="E186" s="5">
-        <v>3.6880000000000002</v>
-      </c>
-      <c r="F186" s="5">
-        <v>2.032</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.306</v>
-      </c>
-      <c r="H186" s="5">
-        <v>4.4109999999999996</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.974</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="E186" s="6">
+        <v>3688</v>
+      </c>
+      <c r="F186" s="6">
+        <v>2032</v>
+      </c>
+      <c r="G186" s="6">
+        <v>2306</v>
+      </c>
+      <c r="H186" s="6">
+        <v>4411</v>
+      </c>
+      <c r="I186" s="6">
+        <v>1974</v>
+      </c>
+      <c r="J186" s="7">
         <v>98</v>
       </c>
-      <c r="K186" s="5">
-        <v>15</v>
-      </c>
-      <c r="L186" s="5">
+      <c r="K186" s="7">
+        <v>15</v>
+      </c>
+      <c r="L186" s="7">
         <v>242</v>
       </c>
-      <c r="M186" s="5">
-        <v>15.85</v>
+      <c r="M186" s="6">
+        <v>15850</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8408,7 +8422,7 @@
       <c r="L188" s="4">
         <v>9</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="7">
         <v>769</v>
       </c>
     </row>
@@ -8447,7 +8461,7 @@
       <c r="L189" s="4">
         <v>6</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="7">
         <v>643</v>
       </c>
     </row>
@@ -8488,7 +8502,7 @@
       <c r="L190" s="4">
         <v>5</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="7">
         <v>413</v>
       </c>
     </row>
@@ -8527,7 +8541,7 @@
       <c r="L191" s="4">
         <v>1</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="7">
         <v>340</v>
       </c>
     </row>
@@ -8568,7 +8582,7 @@
       <c r="L192" s="4">
         <v>5</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="7">
         <v>399</v>
       </c>
     </row>
@@ -8607,7 +8621,7 @@
       <c r="L193" s="4">
         <v>3</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="7">
         <v>272</v>
       </c>
     </row>
@@ -8648,7 +8662,7 @@
       <c r="L194" s="4">
         <v>4</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="7">
         <v>411</v>
       </c>
     </row>
@@ -8687,7 +8701,7 @@
       <c r="L195" s="4">
         <v>5</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="7">
         <v>317</v>
       </c>
     </row>
@@ -8728,7 +8742,7 @@
       <c r="L196" s="4">
         <v>4</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="7">
         <v>451</v>
       </c>
     </row>
@@ -8767,7 +8781,7 @@
       <c r="L197" s="4">
         <v>3</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="7">
         <v>406</v>
       </c>
     </row>
@@ -8808,7 +8822,7 @@
       <c r="L198" s="4">
         <v>5</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="7">
         <v>498</v>
       </c>
     </row>
@@ -8847,7 +8861,7 @@
       <c r="L199" s="4">
         <v>2</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="7">
         <v>469</v>
       </c>
     </row>
@@ -8888,7 +8902,7 @@
       <c r="L200" s="4">
         <v>2</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="7">
         <v>546</v>
       </c>
     </row>
@@ -8927,7 +8941,7 @@
       <c r="L201" s="4">
         <v>7</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="7">
         <v>514</v>
       </c>
     </row>
@@ -8968,7 +8982,7 @@
       <c r="L202" s="4">
         <v>9</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="7">
         <v>590</v>
       </c>
     </row>
@@ -9007,7 +9021,7 @@
       <c r="L203" s="4">
         <v>13</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="7">
         <v>579</v>
       </c>
     </row>
@@ -9048,7 +9062,7 @@
       <c r="L204" s="4">
         <v>12</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="7">
         <v>550</v>
       </c>
     </row>
@@ -9087,7 +9101,7 @@
       <c r="L205" s="4">
         <v>10</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="7">
         <v>574</v>
       </c>
     </row>
@@ -9128,7 +9142,7 @@
       <c r="L206" s="4">
         <v>11</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="7">
         <v>479</v>
       </c>
     </row>
@@ -9167,7 +9181,7 @@
       <c r="L207" s="4">
         <v>10</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="7">
         <v>487</v>
       </c>
     </row>
@@ -9208,7 +9222,7 @@
       <c r="L208" s="4">
         <v>5</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="7">
         <v>339</v>
       </c>
     </row>
@@ -9247,7 +9261,7 @@
       <c r="L209" s="4">
         <v>5</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="7">
         <v>394</v>
       </c>
     </row>
@@ -9288,7 +9302,7 @@
       <c r="L210" s="4">
         <v>3</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="7">
         <v>418</v>
       </c>
     </row>
@@ -9327,7 +9341,7 @@
       <c r="L211" s="4">
         <v>5</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="7">
         <v>522</v>
       </c>
     </row>
@@ -9335,39 +9349,49 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="D212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="6">
+        <v>1074</v>
+      </c>
+      <c r="D212" s="7">
         <v>570</v>
       </c>
-      <c r="E212" s="5">
-        <v>3.5990000000000002</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="G212" s="5">
-        <v>1.4890000000000001</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="E212" s="6">
+        <v>3599</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1582</v>
+      </c>
+      <c r="G212" s="6">
+        <v>1489</v>
+      </c>
+      <c r="H212" s="6">
+        <v>2088</v>
+      </c>
+      <c r="I212" s="7">
         <v>771</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="7">
         <v>54</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="7">
         <v>9</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="7">
         <v>144</v>
       </c>
-      <c r="M212" s="5">
-        <v>11.38</v>
+      <c r="M212" s="6">
+        <v>11380</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
